--- a/EV-Gait-SNN/trained_models/Benchmark.xlsx
+++ b/EV-Gait-SNN/trained_models/Benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mirror\LMU\Semester 1\NeuroTUM\Munich Neuromorphic Hackathon\Simi\dev_tree\2025-nc-hackathon-event-id\EV-Gait-SNN\trained_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293182F1-4562-4231-ADFF-CD9EE32FF5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADA8B5F-BECF-4507-9E68-6B8F5A36185C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AA6DFFEA-0F08-457F-BB40-30DAAAE7E9C3}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
-  <si>
-    <t>model</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>validation</t>
   </si>
@@ -96,13 +93,34 @@
   </si>
   <si>
     <t>quantized model hook not detected</t>
+  </si>
+  <si>
+    <t>Trained_plif_snn_2025-11-11T21.20.31.977024</t>
+  </si>
+  <si>
+    <t>inference_time (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Live Infer</t>
+  </si>
+  <si>
+    <t>Loihi2 Inf</t>
+  </si>
+  <si>
+    <t>model id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,18 +128,96 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -131,14 +227,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,382 +619,566 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82765F8-7410-4D5E-A7A7-A30DD9678442}">
-  <dimension ref="B2:P10"/>
+  <dimension ref="B2:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="2:21">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.98350864019234496</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2.3808851353957598E-3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>24786204.063000001</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1043.2192967113799</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2.2652009725570601E-2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1.14037149287424E-3</v>
+      </c>
+      <c r="O4" s="4">
+        <f>M4*1000</f>
+        <v>22.652009725570601</v>
+      </c>
+      <c r="P4" s="4">
+        <f>N4*1000</f>
+        <v>1.1403714928742399</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>1701766.504</v>
+      </c>
+      <c r="R4" s="16">
+        <v>767212542.01999998</v>
+      </c>
+      <c r="S4" s="16">
+        <v>2424275200</v>
+      </c>
+      <c r="T4" s="19"/>
+      <c r="U4" s="20"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="4">
+        <v>6.6622926712036096E-2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1.42807394712079E-3</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" ref="O5:O11" si="0">M5*1000</f>
+        <v>66.62292671203609</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" ref="P5:P11" si="1">N5*1000</f>
+        <v>1.4280739471207899</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>1701766.504</v>
+      </c>
+      <c r="R5" s="12">
+        <v>843239823.27999997</v>
+      </c>
+      <c r="S5" s="12">
+        <v>2424275200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.9345</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.93226890515071303</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3.4213474418795901E-3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>24765348.583000001</v>
+      </c>
+      <c r="L6" s="4">
+        <v>14829.4854507198</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2.2735010623931799E-2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>9.8490135755973209E-4</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="0"/>
+        <v>22.7350106239318</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.98490135755973207</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>1701766.504</v>
+      </c>
+      <c r="R6" s="12">
+        <v>133103058.23199999</v>
+      </c>
+      <c r="S6" s="12">
+        <v>2424275200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.9355</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="4">
+        <v>6.6786963462829502E-2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>8.9609997695183901E-4</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="0"/>
+        <v>66.786963462829505</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89609997695183896</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>1701766.504</v>
+      </c>
+      <c r="R7" s="12">
+        <v>120745739.108</v>
+      </c>
+      <c r="S7" s="12">
+        <v>2424275200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.92274916559091202</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.9452958517922E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <v>24788341.831999999</v>
+      </c>
+      <c r="L8" s="4">
+        <v>464.161182969881</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2.2864108800887999E-2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1.0256358784976401E-3</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="0"/>
+        <v>22.864108800887998</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.02563587849764</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>1701766.504</v>
+      </c>
+      <c r="R8" s="12">
+        <v>136321445.96399999</v>
+      </c>
+      <c r="S8" s="12">
+        <v>2424275200</v>
+      </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="9" spans="2:21">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
-        <v>9</v>
+      <c r="G9" s="4">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.94450000000000001</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="4">
+        <v>6.6654772043228103E-2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>8.3392384503606096E-4</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="0"/>
+        <v>66.654772043228107</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.83392384503606098</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>1701766.504</v>
+      </c>
+      <c r="R9" s="12">
+        <v>126093038.71600001</v>
+      </c>
+      <c r="S9" s="12">
+        <v>2424275200</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4" t="b">
+    <row r="10" spans="2:21">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
         <v>1</v>
       </c>
-      <c r="E4" t="b">
+      <c r="H10" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.92620097282099301</v>
+      </c>
+      <c r="J10" s="6">
+        <v>3.1796573348009702E-3</v>
+      </c>
+      <c r="K10" s="6">
+        <v>25607950.191</v>
+      </c>
+      <c r="L10" s="6">
+        <v>106.89179818395699</v>
+      </c>
+      <c r="M10" s="6">
+        <v>2.2182739496231001E-2</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1.7329483184007101E-3</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="0"/>
+        <v>22.182739496231001</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7329483184007102</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>1701766.504</v>
+      </c>
+      <c r="R10" s="13">
+        <v>155506258.81200001</v>
+      </c>
+      <c r="S10" s="13">
+        <v>2401337600</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="H4">
-        <v>0.98350864019234496</v>
-      </c>
-      <c r="I4">
-        <v>2.3808851353957598E-3</v>
-      </c>
-      <c r="J4">
-        <v>24786204.063000001</v>
-      </c>
-      <c r="K4">
-        <v>1043.2192967113799</v>
-      </c>
-      <c r="L4">
-        <v>2.2652009725570601E-2</v>
-      </c>
-      <c r="M4">
-        <v>1.14037149287424E-3</v>
-      </c>
-      <c r="N4">
+      <c r="G11" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.90349999999999997</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="6">
+        <v>6.7119318485259996E-2</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1.20360425946144E-3</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="0"/>
+        <v>67.119318485259996</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="1"/>
+        <v>1.20360425946144</v>
+      </c>
+      <c r="Q11" s="13">
         <v>1701766.504</v>
       </c>
-      <c r="O4">
-        <v>60729952.159999996</v>
-      </c>
-      <c r="P4">
-        <v>2424275200</v>
+      <c r="R11" s="18">
+        <v>152935364.664</v>
+      </c>
+      <c r="S11" s="18">
+        <v>2401337600</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.05</v>
-      </c>
-      <c r="G5">
-        <v>0.05</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>6.6622926712036096E-2</v>
-      </c>
-      <c r="M5">
-        <v>1.42807394712079E-3</v>
-      </c>
-      <c r="N5">
-        <v>1701766.504</v>
-      </c>
-      <c r="O5">
-        <v>843239823.27999997</v>
-      </c>
-      <c r="P5">
-        <v>2424275200</v>
+    <row r="12" spans="2:21">
+      <c r="I12" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0.9345</v>
-      </c>
-      <c r="H6">
-        <v>0.93226890515071303</v>
-      </c>
-      <c r="I6">
-        <v>3.4213474418795901E-3</v>
-      </c>
-      <c r="J6">
-        <v>24765348.583000001</v>
-      </c>
-      <c r="K6">
-        <v>14829.4854507198</v>
-      </c>
-      <c r="L6">
-        <v>2.2735010623931799E-2</v>
-      </c>
-      <c r="M6">
-        <v>9.8490135755973209E-4</v>
-      </c>
-      <c r="N6">
-        <v>1701766.504</v>
-      </c>
-      <c r="O6">
-        <v>133103058.23199999</v>
-      </c>
-      <c r="P6">
-        <v>2424275200</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.9355</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>6.6786963462829502E-2</v>
-      </c>
-      <c r="M7">
-        <v>8.9609997695183901E-4</v>
-      </c>
-      <c r="N7">
-        <v>1701766.504</v>
-      </c>
-      <c r="O7">
-        <v>120745739.108</v>
-      </c>
-      <c r="P7">
-        <v>2424275200</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>50</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.94750000000000001</v>
-      </c>
-      <c r="H8">
-        <v>0.92274916559091202</v>
-      </c>
-      <c r="I8">
-        <v>1.9452958517922E-3</v>
-      </c>
-      <c r="J8">
-        <v>24788341.831999999</v>
-      </c>
-      <c r="K8">
-        <v>464.161182969881</v>
-      </c>
-      <c r="L8">
-        <v>2.2864108800887999E-2</v>
-      </c>
-      <c r="M8">
-        <v>1.0256358784976401E-3</v>
-      </c>
-      <c r="N8">
-        <v>1701766.504</v>
-      </c>
-      <c r="O8">
-        <v>136321445.96399999</v>
-      </c>
-      <c r="P8">
-        <v>2424275200</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="G9">
-        <v>0.94450000000000001</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>6.6654772043228103E-2</v>
-      </c>
-      <c r="M9">
-        <v>8.3392384503606096E-4</v>
-      </c>
-      <c r="N9">
-        <v>1701766.504</v>
-      </c>
-      <c r="O9">
-        <v>126093038.71600001</v>
-      </c>
-      <c r="P9">
-        <v>2424275200</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
+    <row r="14" spans="2:21">
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="L2:M2"/>
+  <mergeCells count="11">
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
